--- a/design/TESC_Plus_Gerber/TESC_Plus_BOM.xlsx
+++ b/design/TESC_Plus_Gerber/TESC_Plus_BOM.xlsx
@@ -1,12 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Thomas/Developer/HardwareDesign/BLDC/tesc/design/TESC_Plus_Gerber/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{393916E1-E258-B64C-A27C-ED6D944A7B9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="工作表1" sheetId="1" r:id="rId3"/>
+    <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -214,9 +231,6 @@
     <t>LED Blue</t>
   </si>
   <si>
-    <t>VLMB1300-GS08</t>
-  </si>
-  <si>
     <t>D2 D6</t>
   </si>
   <si>
@@ -226,9 +240,6 @@
     <t>LED Red</t>
   </si>
   <si>
-    <t>VLMS1300-GS08</t>
-  </si>
-  <si>
     <t>D3</t>
   </si>
   <si>
@@ -238,9 +249,6 @@
     <t>LED Green</t>
   </si>
   <si>
-    <t>VLMTG1300-GS08</t>
-  </si>
-  <si>
     <t>D4</t>
   </si>
   <si>
@@ -767,62 +775,78 @@
   </si>
   <si>
     <t>ABM3B-8.000MHZ-10-1-U-T</t>
+  </si>
+  <si>
+    <t>LTST-C194TBKT</t>
+  </si>
+  <si>
+    <t>LTST-C194KRKT</t>
+  </si>
+  <si>
+    <t>LTST-C194KGKT</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="12">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="12.0"/>
+      <sz val="12"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Inherit"/>
     </font>
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
-    <font/>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
       <strike/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <name val="Arial"/>
     </font>
     <font>
       <strike/>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
       <strike/>
+      <sz val="10"/>
       <color rgb="FF333333"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
@@ -832,11 +856,17 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="10">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
@@ -850,6 +880,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -864,6 +895,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -878,6 +910,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -892,6 +925,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -906,6 +940,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -920,6 +955,7 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -934,6 +970,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -948,6 +985,7 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -962,266 +1000,559 @@
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="54">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="3" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" shrinkToFit="0" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="3">
     <dxf>
-      <font/>
       <fill>
-        <patternFill patternType="none"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF3F3F3"/>
+          <bgColor rgb="FFF3F3F3"/>
+        </patternFill>
       </fill>
-      <border/>
     </dxf>
     <dxf>
-      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFBDBDBD"/>
           <bgColor rgb="FFBDBDBD"/>
         </patternFill>
       </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-      <border/>
-    </dxf>
-    <dxf>
-      <font/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFF3F3F3"/>
-          <bgColor rgb="FFF3F3F3"/>
-        </patternFill>
-      </fill>
-      <border/>
     </dxf>
   </dxfs>
   <tableStyles count="1">
-    <tableStyle count="3" pivot="0" name="工作表1-style">
-      <tableStyleElement dxfId="1" type="headerRow"/>
-      <tableStyleElement dxfId="2" type="firstRowStripe"/>
-      <tableStyleElement dxfId="3" type="secondRowStripe"/>
+    <tableStyle name="工作表1-style" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+      <tableStyleElement type="headerRow" dxfId="2"/>
+      <tableStyleElement type="firstRowStripe" dxfId="1"/>
+      <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A7:H62" displayName="Table_1" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table_1" displayName="Table_1" ref="A7:H62">
   <tableColumns count="8">
-    <tableColumn name="No" id="1"/>
-    <tableColumn name="Ref" id="2"/>
-    <tableColumn name="Qty" id="3"/>
-    <tableColumn name="Value" id="4"/>
-    <tableColumn name="Footprint" id="5"/>
-    <tableColumn name="Description" id="6"/>
-    <tableColumn name="Part Number" id="7"/>
-    <tableColumn name="Note" id="8"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="No"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Ref"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Qty"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Value"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Footprint"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Description"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Part Number"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Note"/>
   </tableColumns>
-  <tableStyleInfo name="工作表1-style" showColumnStripes="0" showFirstColumn="1" showLastColumn="1" showRowStripes="1"/>
+  <tableStyleInfo name="工作表1-style" showFirstColumn="1" showLastColumn="1" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="A1:AA100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="14.29"/>
-    <col customWidth="1" min="2" max="2" width="47.0"/>
-    <col customWidth="1" min="3" max="3" width="11.71"/>
-    <col customWidth="1" min="4" max="4" width="25.71"/>
-    <col customWidth="1" min="5" max="5" width="37.71"/>
-    <col customWidth="1" min="6" max="6" width="39.57"/>
-    <col customWidth="1" min="7" max="7" width="25.86"/>
-    <col customWidth="1" min="8" max="8" width="15.86"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="47" customWidth="1"/>
+    <col min="3" max="3" width="11.6640625" customWidth="1"/>
+    <col min="4" max="4" width="25.6640625" customWidth="1"/>
+    <col min="5" max="5" width="37.6640625" customWidth="1"/>
+    <col min="6" max="6" width="39.5" customWidth="1"/>
+    <col min="7" max="7" width="25.83203125" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:27" ht="14">
+      <c r="A1" s="52" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="53"/>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
@@ -1250,12 +1581,13 @@
       <c r="Z1" s="1"/>
       <c r="AA1" s="1"/>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:27" ht="16">
+      <c r="A2" s="52" t="s">
         <v>2</v>
       </c>
+      <c r="B2" s="53"/>
       <c r="C2" s="3">
-        <f>sum(C8:C62)</f>
+        <f>SUM(C8:C62)</f>
         <v>136</v>
       </c>
       <c r="D2" s="1"/>
@@ -1283,12 +1615,13 @@
       <c r="Z2" s="1"/>
       <c r="AA2" s="1"/>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
+    <row r="3" spans="1:27" ht="13">
+      <c r="A3" s="52" t="s">
         <v>3</v>
       </c>
+      <c r="B3" s="53"/>
       <c r="C3" s="2">
-        <f>rows(B8:B62)</f>
+        <f>ROWS(B8:B62)</f>
         <v>55</v>
       </c>
       <c r="D3" s="1"/>
@@ -1316,7 +1649,7 @@
       <c r="Z3" s="1"/>
       <c r="AA3" s="1"/>
     </row>
-    <row r="4">
+    <row r="4" spans="1:27" ht="13">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1345,7 +1678,7 @@
       <c r="Z4" s="1"/>
       <c r="AA4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:27" ht="13">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1374,7 +1707,7 @@
       <c r="Z5" s="1"/>
       <c r="AA5" s="1"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:27" ht="13">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
@@ -1403,7 +1736,7 @@
       <c r="Z6" s="1"/>
       <c r="AA6" s="1"/>
     </row>
-    <row r="7">
+    <row r="7" spans="1:27" ht="14">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -1448,15 +1781,15 @@
       <c r="Z7" s="1"/>
       <c r="AA7" s="1"/>
     </row>
-    <row r="8">
+    <row r="8" spans="1:27" ht="14">
       <c r="A8" s="8">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C8" s="9">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="D8" s="10" t="s">
         <v>13</v>
@@ -1491,15 +1824,15 @@
       <c r="Z8" s="1"/>
       <c r="AA8" s="1"/>
     </row>
-    <row r="9">
+    <row r="9" spans="1:27" ht="15">
       <c r="A9" s="13">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>17</v>
       </c>
       <c r="C9" s="9">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="10" t="s">
         <v>18</v>
@@ -1534,15 +1867,15 @@
       <c r="Z9" s="1"/>
       <c r="AA9" s="1"/>
     </row>
-    <row r="10">
+    <row r="10" spans="1:27" ht="28">
       <c r="A10" s="8">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="9">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="D10" s="10" t="s">
         <v>22</v>
@@ -1577,15 +1910,15 @@
       <c r="Z10" s="1"/>
       <c r="AA10" s="1"/>
     </row>
-    <row r="11">
+    <row r="11" spans="1:27" ht="15">
       <c r="A11" s="13">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="10" t="s">
         <v>26</v>
@@ -1620,15 +1953,15 @@
       <c r="Z11" s="1"/>
       <c r="AA11" s="1"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:27" ht="14">
       <c r="A12" s="8">
-        <v>5.0</v>
+        <v>5</v>
       </c>
       <c r="B12" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C12" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="10" t="s">
         <v>30</v>
@@ -1663,15 +1996,15 @@
       <c r="Z12" s="1"/>
       <c r="AA12" s="1"/>
     </row>
-    <row r="13">
+    <row r="13" spans="1:27" ht="15">
       <c r="A13" s="13">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C13" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="10" t="s">
         <v>34</v>
@@ -1706,15 +2039,15 @@
       <c r="Z13" s="1"/>
       <c r="AA13" s="1"/>
     </row>
-    <row r="14">
+    <row r="14" spans="1:27" ht="14">
       <c r="A14" s="8">
-        <v>7.0</v>
+        <v>7</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D14" s="10" t="s">
         <v>38</v>
@@ -1749,15 +2082,15 @@
       <c r="Z14" s="1"/>
       <c r="AA14" s="1"/>
     </row>
-    <row r="15">
+    <row r="15" spans="1:27" ht="15">
       <c r="A15" s="13">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C15" s="9">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="D15" s="10" t="s">
         <v>43</v>
@@ -1792,15 +2125,15 @@
       <c r="Z15" s="1"/>
       <c r="AA15" s="1"/>
     </row>
-    <row r="16">
+    <row r="16" spans="1:27" ht="14">
       <c r="A16" s="8">
-        <v>9.0</v>
+        <v>9</v>
       </c>
       <c r="B16" s="10" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="10">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="10" t="s">
         <v>47</v>
@@ -1835,15 +2168,15 @@
       <c r="Z16" s="1"/>
       <c r="AA16" s="1"/>
     </row>
-    <row r="17">
+    <row r="17" spans="1:27" ht="15">
       <c r="A17" s="13">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="B17" s="10" t="s">
         <v>50</v>
       </c>
       <c r="C17" s="10">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="D17" s="10" t="s">
         <v>51</v>
@@ -1878,15 +2211,15 @@
       <c r="Z17" s="1"/>
       <c r="AA17" s="1"/>
     </row>
-    <row r="18">
+    <row r="18" spans="1:27" ht="14">
       <c r="A18" s="8">
-        <v>11.0</v>
+        <v>11</v>
       </c>
       <c r="B18" s="22" t="s">
         <v>55</v>
       </c>
       <c r="C18" s="23">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>56</v>
@@ -1921,15 +2254,15 @@
       <c r="Z18" s="1"/>
       <c r="AA18" s="1"/>
     </row>
-    <row r="19">
+    <row r="19" spans="1:27" ht="15">
       <c r="A19" s="13">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="B19" s="10" t="s">
         <v>59</v>
       </c>
       <c r="C19" s="10">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D19" s="10" t="s">
         <v>60</v>
@@ -1964,15 +2297,15 @@
       <c r="Z19" s="1"/>
       <c r="AA19" s="1"/>
     </row>
-    <row r="20">
+    <row r="20" spans="1:27" ht="14">
       <c r="A20" s="8">
-        <v>13.0</v>
+        <v>13</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>63</v>
       </c>
       <c r="C20" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="10" t="s">
         <v>64</v>
@@ -1983,8 +2316,8 @@
       <c r="F20" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="G20" s="10" t="s">
-        <v>67</v>
+      <c r="G20" s="24" t="s">
+        <v>249</v>
       </c>
       <c r="H20" s="27"/>
       <c r="I20" s="1"/>
@@ -2007,27 +2340,27 @@
       <c r="Z20" s="1"/>
       <c r="AA20" s="1"/>
     </row>
-    <row r="21">
+    <row r="21" spans="1:27" ht="15">
       <c r="A21" s="13">
-        <v>14.0</v>
+        <v>14</v>
       </c>
       <c r="B21" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="9">
+        <v>2</v>
+      </c>
+      <c r="D21" s="10" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" s="9">
-        <v>2.0</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>69</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>65</v>
       </c>
       <c r="F21" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="G21" s="20" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>250</v>
       </c>
       <c r="H21" s="27"/>
       <c r="I21" s="1"/>
@@ -2050,27 +2383,27 @@
       <c r="Z21" s="1"/>
       <c r="AA21" s="1"/>
     </row>
-    <row r="22">
+    <row r="22" spans="1:27" ht="14">
       <c r="A22" s="8">
-        <v>15.0</v>
+        <v>15</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C22" s="10">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>65</v>
       </c>
       <c r="F22" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="G22" s="24" t="s">
+        <v>251</v>
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="1"/>
@@ -2093,27 +2426,27 @@
       <c r="Z22" s="1"/>
       <c r="AA22" s="1"/>
     </row>
-    <row r="23">
+    <row r="23" spans="1:27" ht="15">
       <c r="A23" s="13">
-        <v>16.0</v>
+        <v>16</v>
       </c>
       <c r="B23" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="10">
+        <v>1</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="20" t="s">
         <v>76</v>
       </c>
-      <c r="C23" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D23" s="10" t="s">
+      <c r="G23" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F23" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>80</v>
       </c>
       <c r="H23" s="28"/>
       <c r="I23" s="29"/>
@@ -2136,27 +2469,27 @@
       <c r="Z23" s="1"/>
       <c r="AA23" s="1"/>
     </row>
-    <row r="24">
+    <row r="24" spans="1:27" ht="14">
       <c r="A24" s="8">
-        <v>17.0</v>
+        <v>17</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="10">
+        <v>1</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="10" t="s">
         <v>81</v>
-      </c>
-      <c r="C24" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="F24" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>84</v>
       </c>
       <c r="H24" s="12"/>
       <c r="I24" s="1"/>
@@ -2179,27 +2512,27 @@
       <c r="Z24" s="1"/>
       <c r="AA24" s="1"/>
     </row>
-    <row r="25">
+    <row r="25" spans="1:27" ht="15">
       <c r="A25" s="13">
-        <v>18.0</v>
+        <v>18</v>
       </c>
       <c r="B25" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="10">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C25" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D25" s="10" t="s">
+      <c r="G25" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>89</v>
       </c>
       <c r="H25" s="30"/>
       <c r="I25" s="1"/>
@@ -2222,27 +2555,27 @@
       <c r="Z25" s="1"/>
       <c r="AA25" s="1"/>
     </row>
-    <row r="26">
+    <row r="26" spans="1:27" ht="14">
       <c r="A26" s="8">
-        <v>19.0</v>
+        <v>19</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C26" s="10">
+        <v>1</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C26" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="20" t="s">
-        <v>93</v>
-      </c>
       <c r="G26" s="10">
-        <v>1.051330001E9</v>
+        <v>1051330001</v>
       </c>
       <c r="H26" s="12"/>
       <c r="I26" s="1"/>
@@ -2265,27 +2598,27 @@
       <c r="Z26" s="1"/>
       <c r="AA26" s="1"/>
     </row>
-    <row r="27">
+    <row r="27" spans="1:27" ht="15">
       <c r="A27" s="13">
-        <v>20.0</v>
+        <v>20</v>
       </c>
       <c r="B27" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C27" s="10">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="F27" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="C27" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D27" s="10" t="s">
+      <c r="G27" s="19" t="s">
         <v>95</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" s="31" t="s">
-        <v>97</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>98</v>
       </c>
       <c r="H27" s="12"/>
       <c r="I27" s="1"/>
@@ -2308,27 +2641,27 @@
       <c r="Z27" s="1"/>
       <c r="AA27" s="1"/>
     </row>
-    <row r="28">
+    <row r="28" spans="1:27" ht="14">
       <c r="A28" s="8">
-        <v>21.0</v>
+        <v>21</v>
       </c>
       <c r="B28" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C28" s="10">
+        <v>1</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="31" t="s">
         <v>99</v>
       </c>
-      <c r="C28" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D28" s="10" t="s">
+      <c r="G28" s="19" t="s">
         <v>100</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="F28" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="G28" s="19" t="s">
-        <v>103</v>
       </c>
       <c r="H28" s="12"/>
       <c r="I28" s="1"/>
@@ -2351,27 +2684,27 @@
       <c r="Z28" s="1"/>
       <c r="AA28" s="1"/>
     </row>
-    <row r="29">
+    <row r="29" spans="1:27" ht="15">
       <c r="A29" s="13">
-        <v>22.0</v>
+        <v>22</v>
       </c>
       <c r="B29" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="10">
+        <v>1</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="F29" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="C29" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D29" s="10" t="s">
+      <c r="G29" s="19" t="s">
         <v>105</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="G29" s="19" t="s">
-        <v>108</v>
       </c>
       <c r="H29" s="12"/>
       <c r="I29" s="1"/>
@@ -2394,27 +2727,27 @@
       <c r="Z29" s="1"/>
       <c r="AA29" s="1"/>
     </row>
-    <row r="30">
+    <row r="30" spans="1:27" ht="14">
       <c r="A30" s="8">
-        <v>23.0</v>
+        <v>23</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C30" s="10">
+        <v>1</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F30" s="31" t="s">
         <v>109</v>
       </c>
-      <c r="C30" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D30" s="10" t="s">
+      <c r="G30" s="19" t="s">
         <v>110</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F30" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="1"/>
@@ -2437,27 +2770,27 @@
       <c r="Z30" s="1"/>
       <c r="AA30" s="1"/>
     </row>
-    <row r="31" ht="1.5" customHeight="1">
+    <row r="31" spans="1:27" ht="1.5" customHeight="1">
       <c r="A31" s="13">
-        <v>24.0</v>
+        <v>24</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F31" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="C31" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D31" s="10" t="s">
+      <c r="G31" s="31" t="s">
         <v>115</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F31" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" s="31" t="s">
-        <v>118</v>
       </c>
       <c r="H31" s="12"/>
       <c r="I31" s="1"/>
@@ -2480,24 +2813,24 @@
       <c r="Z31" s="1"/>
       <c r="AA31" s="1"/>
     </row>
-    <row r="32">
+    <row r="32" spans="1:27" ht="14">
       <c r="A32" s="8">
-        <v>25.0</v>
+        <v>25</v>
       </c>
       <c r="B32" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C32" s="16">
+        <v>1</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="33" t="s">
         <v>119</v>
-      </c>
-      <c r="C32" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="D32" s="16" t="s">
-        <v>120</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" s="33" t="s">
-        <v>122</v>
       </c>
       <c r="G32" s="10"/>
       <c r="H32" s="34"/>
@@ -2521,24 +2854,24 @@
       <c r="Z32" s="1"/>
       <c r="AA32" s="1"/>
     </row>
-    <row r="33" ht="1.5" customHeight="1">
+    <row r="33" spans="1:27" ht="1.5" customHeight="1">
       <c r="A33" s="13">
-        <v>26.0</v>
+        <v>26</v>
       </c>
       <c r="B33" s="16" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C33" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="16" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F33" s="31" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G33" s="31"/>
       <c r="H33" s="12"/>
@@ -2562,24 +2895,24 @@
       <c r="Z33" s="1"/>
       <c r="AA33" s="1"/>
     </row>
-    <row r="34">
+    <row r="34" spans="1:27" ht="14">
       <c r="A34" s="8">
-        <v>27.0</v>
+        <v>27</v>
       </c>
       <c r="B34" s="16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C34" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D34" s="16" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E34" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F34" s="33" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G34" s="10"/>
       <c r="H34" s="34"/>
@@ -2603,24 +2936,24 @@
       <c r="Z34" s="1"/>
       <c r="AA34" s="1"/>
     </row>
-    <row r="35">
+    <row r="35" spans="1:27" ht="15">
       <c r="A35" s="13">
-        <v>28.0</v>
+        <v>28</v>
       </c>
       <c r="B35" s="16" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="16">
+        <v>1</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>126</v>
+      </c>
+      <c r="F35" s="33" t="s">
         <v>127</v>
-      </c>
-      <c r="C35" s="16">
-        <v>1.0</v>
-      </c>
-      <c r="D35" s="16" t="s">
-        <v>128</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>129</v>
-      </c>
-      <c r="F35" s="33" t="s">
-        <v>130</v>
       </c>
       <c r="G35" s="10"/>
       <c r="H35" s="34"/>
@@ -2644,24 +2977,24 @@
       <c r="Z35" s="1"/>
       <c r="AA35" s="1"/>
     </row>
-    <row r="36">
+    <row r="36" spans="1:27" ht="14">
       <c r="A36" s="8">
-        <v>29.0</v>
+        <v>29</v>
       </c>
       <c r="B36" s="16" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C36" s="16">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D36" s="16" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F36" s="33" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G36" s="10"/>
       <c r="H36" s="34"/>
@@ -2685,27 +3018,27 @@
       <c r="Z36" s="1"/>
       <c r="AA36" s="1"/>
     </row>
-    <row r="37">
+    <row r="37" spans="1:27" ht="15">
       <c r="A37" s="13">
-        <v>30.0</v>
+        <v>30</v>
       </c>
       <c r="B37" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="10">
+        <v>6</v>
+      </c>
+      <c r="D37" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F37" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="D37" s="10" t="s">
+      <c r="G37" s="9" t="s">
         <v>135</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="F37" s="20" t="s">
-        <v>137</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>138</v>
       </c>
       <c r="H37" s="34"/>
       <c r="I37" s="1"/>
@@ -2728,30 +3061,30 @@
       <c r="Z37" s="1"/>
       <c r="AA37" s="1"/>
     </row>
-    <row r="38">
+    <row r="38" spans="1:27" ht="14">
       <c r="A38" s="35">
-        <v>31.0</v>
+        <v>31</v>
       </c>
       <c r="B38" s="36" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38" s="36">
+        <v>1</v>
+      </c>
+      <c r="D38" s="36" t="s">
+        <v>137</v>
+      </c>
+      <c r="E38" s="37" t="s">
+        <v>138</v>
+      </c>
+      <c r="F38" s="38" t="s">
         <v>139</v>
       </c>
-      <c r="C38" s="36">
-        <v>1.0</v>
-      </c>
-      <c r="D38" s="36" t="s">
+      <c r="G38" s="39" t="s">
         <v>140</v>
       </c>
-      <c r="E38" s="37" t="s">
+      <c r="H38" s="40" t="s">
         <v>141</v>
-      </c>
-      <c r="F38" s="38" t="s">
-        <v>142</v>
-      </c>
-      <c r="G38" s="39" t="s">
-        <v>143</v>
-      </c>
-      <c r="H38" s="40" t="s">
-        <v>144</v>
       </c>
       <c r="I38" s="41"/>
       <c r="J38" s="41"/>
@@ -2773,27 +3106,27 @@
       <c r="Z38" s="41"/>
       <c r="AA38" s="41"/>
     </row>
-    <row r="39">
+    <row r="39" spans="1:27" ht="15">
       <c r="A39" s="13">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="10">
+        <v>2</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>145</v>
-      </c>
-      <c r="C39" s="10">
-        <v>2.0</v>
-      </c>
-      <c r="D39" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F39" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>148</v>
       </c>
       <c r="H39" s="12"/>
       <c r="I39" s="1"/>
@@ -2816,27 +3149,27 @@
       <c r="Z39" s="1"/>
       <c r="AA39" s="1"/>
     </row>
-    <row r="40">
+    <row r="40" spans="1:27" ht="14">
       <c r="A40" s="8">
-        <v>33.0</v>
+        <v>33</v>
       </c>
       <c r="B40" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C40" s="9">
+        <v>7</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>149</v>
-      </c>
-      <c r="C40" s="9">
-        <v>7.0</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F40" s="20" t="s">
-        <v>151</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>152</v>
       </c>
       <c r="H40" s="12"/>
       <c r="I40" s="1"/>
@@ -2859,27 +3192,27 @@
       <c r="Z40" s="1"/>
       <c r="AA40" s="1"/>
     </row>
-    <row r="41">
+    <row r="41" spans="1:27" ht="15">
       <c r="A41" s="13">
-        <v>34.0</v>
+        <v>34</v>
       </c>
       <c r="B41" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1</v>
+      </c>
+      <c r="D41" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>152</v>
+      </c>
+      <c r="G41" s="10" t="s">
         <v>153</v>
-      </c>
-      <c r="C41" s="9">
-        <v>1.0</v>
-      </c>
-      <c r="D41" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F41" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="G41" s="10" t="s">
-        <v>156</v>
       </c>
       <c r="H41" s="12"/>
       <c r="I41" s="1"/>
@@ -2902,27 +3235,27 @@
       <c r="Z41" s="1"/>
       <c r="AA41" s="1"/>
     </row>
-    <row r="42">
+    <row r="42" spans="1:27" ht="14">
       <c r="A42" s="8">
-        <v>35.0</v>
+        <v>35</v>
       </c>
       <c r="B42" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="10">
+        <v>3</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G42" s="10" t="s">
         <v>157</v>
-      </c>
-      <c r="C42" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D42" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E42" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F42" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>160</v>
       </c>
       <c r="H42" s="12"/>
       <c r="I42" s="1"/>
@@ -2945,27 +3278,27 @@
       <c r="Z42" s="1"/>
       <c r="AA42" s="1"/>
     </row>
-    <row r="43">
+    <row r="43" spans="1:27" ht="15">
       <c r="A43" s="13">
-        <v>36.0</v>
+        <v>36</v>
       </c>
       <c r="B43" s="19" t="s">
+        <v>158</v>
+      </c>
+      <c r="C43" s="19">
+        <v>1</v>
+      </c>
+      <c r="D43" s="19" t="s">
+        <v>159</v>
+      </c>
+      <c r="E43" s="31" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="G43" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="C43" s="19">
-        <v>1.0</v>
-      </c>
-      <c r="D43" s="19" t="s">
-        <v>162</v>
-      </c>
-      <c r="E43" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="F43" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="G43" s="10" t="s">
-        <v>164</v>
       </c>
       <c r="H43" s="12"/>
       <c r="I43" s="1"/>
@@ -2988,27 +3321,27 @@
       <c r="Z43" s="1"/>
       <c r="AA43" s="1"/>
     </row>
-    <row r="44">
+    <row r="44" spans="1:27" ht="14">
       <c r="A44" s="8">
-        <v>37.0</v>
+        <v>37</v>
       </c>
       <c r="B44" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="C44" s="10">
+        <v>1</v>
+      </c>
+      <c r="D44" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="G44" s="16" t="s">
         <v>165</v>
-      </c>
-      <c r="C44" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E44" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F44" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="G44" s="16" t="s">
-        <v>168</v>
       </c>
       <c r="H44" s="12"/>
       <c r="I44" s="1"/>
@@ -3031,27 +3364,27 @@
       <c r="Z44" s="1"/>
       <c r="AA44" s="1"/>
     </row>
-    <row r="45">
+    <row r="45" spans="1:27" ht="15">
       <c r="A45" s="13">
-        <v>38.0</v>
+        <v>38</v>
       </c>
       <c r="B45" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C45" s="10">
+        <v>1</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" s="16" t="s">
         <v>169</v>
-      </c>
-      <c r="C45" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D45" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="E45" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F45" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="G45" s="16" t="s">
-        <v>172</v>
       </c>
       <c r="H45" s="12"/>
       <c r="I45" s="1"/>
@@ -3074,27 +3407,27 @@
       <c r="Z45" s="1"/>
       <c r="AA45" s="1"/>
     </row>
-    <row r="46">
+    <row r="46" spans="1:27" ht="14">
       <c r="A46" s="8">
-        <v>39.0</v>
+        <v>39</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="10">
+        <v>3</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="C46" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E46" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F46" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="G46" s="10" t="s">
-        <v>176</v>
       </c>
       <c r="H46" s="12"/>
       <c r="I46" s="1"/>
@@ -3117,27 +3450,27 @@
       <c r="Z46" s="1"/>
       <c r="AA46" s="1"/>
     </row>
-    <row r="47">
+    <row r="47" spans="1:27" ht="15">
       <c r="A47" s="13">
-        <v>40.0</v>
+        <v>40</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="C47" s="10">
+        <v>1</v>
+      </c>
+      <c r="D47" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="G47" s="16" t="s">
         <v>177</v>
-      </c>
-      <c r="C47" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E47" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F47" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="G47" s="16" t="s">
-        <v>180</v>
       </c>
       <c r="H47" s="12"/>
       <c r="I47" s="1"/>
@@ -3160,27 +3493,27 @@
       <c r="Z47" s="1"/>
       <c r="AA47" s="1"/>
     </row>
-    <row r="48">
+    <row r="48" spans="1:27" ht="14">
       <c r="A48" s="8">
-        <v>41.0</v>
+        <v>41</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="C48" s="10">
+        <v>4</v>
+      </c>
+      <c r="D48" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>181</v>
-      </c>
-      <c r="C48" s="10">
-        <v>4.0</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F48" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="G48" s="10" t="s">
-        <v>184</v>
       </c>
       <c r="H48" s="12"/>
       <c r="I48" s="1"/>
@@ -3203,27 +3536,27 @@
       <c r="Z48" s="1"/>
       <c r="AA48" s="1"/>
     </row>
-    <row r="49">
+    <row r="49" spans="1:27" ht="15">
       <c r="A49" s="13">
-        <v>42.0</v>
+        <v>42</v>
       </c>
       <c r="B49" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="C49" s="10">
+        <v>7</v>
+      </c>
+      <c r="D49" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>185</v>
-      </c>
-      <c r="C49" s="10">
-        <v>7.0</v>
-      </c>
-      <c r="D49" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E49" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F49" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="G49" s="10" t="s">
-        <v>188</v>
       </c>
       <c r="H49" s="12"/>
       <c r="I49" s="1"/>
@@ -3246,27 +3579,27 @@
       <c r="Z49" s="1"/>
       <c r="AA49" s="1"/>
     </row>
-    <row r="50">
+    <row r="50" spans="1:27" ht="14">
       <c r="A50" s="8">
-        <v>43.0</v>
+        <v>43</v>
       </c>
       <c r="B50" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="10">
+        <v>3</v>
+      </c>
+      <c r="D50" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="E50" s="9" t="s">
+        <v>188</v>
+      </c>
+      <c r="F50" s="33" t="s">
         <v>189</v>
       </c>
-      <c r="C50" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D50" s="10" t="s">
+      <c r="G50" s="16" t="s">
         <v>190</v>
-      </c>
-      <c r="E50" s="9" t="s">
-        <v>191</v>
-      </c>
-      <c r="F50" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="G50" s="16" t="s">
-        <v>193</v>
       </c>
       <c r="H50" s="12"/>
       <c r="I50" s="1"/>
@@ -3289,27 +3622,27 @@
       <c r="Z50" s="1"/>
       <c r="AA50" s="1"/>
     </row>
-    <row r="51">
+    <row r="51" spans="1:27" ht="15">
       <c r="A51" s="13">
-        <v>44.0</v>
+        <v>44</v>
       </c>
       <c r="B51" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="10">
+        <v>6</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="C51" s="10">
-        <v>6.0</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="E51" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="G51" s="10" t="s">
-        <v>197</v>
       </c>
       <c r="H51" s="42"/>
       <c r="I51" s="1"/>
@@ -3332,27 +3665,27 @@
       <c r="Z51" s="1"/>
       <c r="AA51" s="1"/>
     </row>
-    <row r="52">
+    <row r="52" spans="1:27" ht="14">
       <c r="A52" s="8">
-        <v>45.0</v>
+        <v>45</v>
       </c>
       <c r="B52" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="C52" s="10">
+        <v>1</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="G52" s="10" t="s">
         <v>198</v>
-      </c>
-      <c r="C52" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E52" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="F52" s="20" t="s">
-        <v>200</v>
-      </c>
-      <c r="G52" s="10" t="s">
-        <v>201</v>
       </c>
       <c r="H52" s="12"/>
       <c r="I52" s="1"/>
@@ -3375,27 +3708,27 @@
       <c r="Z52" s="1"/>
       <c r="AA52" s="1"/>
     </row>
-    <row r="53">
+    <row r="53" spans="1:27" ht="15">
       <c r="A53" s="13">
-        <v>46.0</v>
+        <v>46</v>
       </c>
       <c r="B53" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" s="10">
+        <v>1</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E53" s="31" t="s">
+        <v>201</v>
+      </c>
+      <c r="F53" s="20" t="s">
         <v>202</v>
       </c>
-      <c r="C53" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D53" s="10" t="s">
+      <c r="G53" s="10" t="s">
         <v>203</v>
-      </c>
-      <c r="E53" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="F53" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="G53" s="10" t="s">
-        <v>206</v>
       </c>
       <c r="H53" s="12"/>
       <c r="I53" s="1"/>
@@ -3418,27 +3751,27 @@
       <c r="Z53" s="1"/>
       <c r="AA53" s="1"/>
     </row>
-    <row r="54">
+    <row r="54" spans="1:27" ht="14">
       <c r="A54" s="8">
-        <v>47.0</v>
+        <v>47</v>
       </c>
       <c r="B54" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C54" s="24">
+        <v>1</v>
+      </c>
+      <c r="D54" s="22" t="s">
+        <v>205</v>
+      </c>
+      <c r="E54" s="43" t="s">
+        <v>206</v>
+      </c>
+      <c r="F54" s="25" t="s">
         <v>207</v>
       </c>
-      <c r="C54" s="24">
-        <v>1.0</v>
-      </c>
-      <c r="D54" s="22" t="s">
+      <c r="G54" s="22" t="s">
         <v>208</v>
-      </c>
-      <c r="E54" s="43" t="s">
-        <v>209</v>
-      </c>
-      <c r="F54" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="G54" s="22" t="s">
-        <v>211</v>
       </c>
       <c r="H54" s="21"/>
       <c r="I54" s="1"/>
@@ -3461,27 +3794,27 @@
       <c r="Z54" s="1"/>
       <c r="AA54" s="1"/>
     </row>
-    <row r="55">
+    <row r="55" spans="1:27" ht="15">
       <c r="A55" s="13">
-        <v>48.0</v>
+        <v>48</v>
       </c>
       <c r="B55" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="10">
+        <v>1</v>
+      </c>
+      <c r="D55" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="F55" s="19" t="s">
         <v>212</v>
       </c>
-      <c r="C55" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D55" s="10" t="s">
+      <c r="G55" s="20" t="s">
         <v>213</v>
-      </c>
-      <c r="E55" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="F55" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="G55" s="20" t="s">
-        <v>216</v>
       </c>
       <c r="H55" s="12"/>
       <c r="I55" s="1"/>
@@ -3504,27 +3837,27 @@
       <c r="Z55" s="1"/>
       <c r="AA55" s="1"/>
     </row>
-    <row r="56">
+    <row r="56" spans="1:27" ht="14">
       <c r="A56" s="8">
-        <v>49.0</v>
+        <v>49</v>
       </c>
       <c r="B56" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="C56" s="10">
+        <v>1</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="F56" s="20" t="s">
         <v>217</v>
       </c>
-      <c r="C56" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D56" s="10" t="s">
+      <c r="G56" s="20" t="s">
         <v>218</v>
-      </c>
-      <c r="E56" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="F56" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="G56" s="20" t="s">
-        <v>221</v>
       </c>
       <c r="H56" s="27"/>
       <c r="I56" s="1"/>
@@ -3547,27 +3880,27 @@
       <c r="Z56" s="1"/>
       <c r="AA56" s="1"/>
     </row>
-    <row r="57">
+    <row r="57" spans="1:27" ht="15">
       <c r="A57" s="13">
-        <v>50.0</v>
+        <v>50</v>
       </c>
       <c r="B57" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C57" s="10">
+        <v>3</v>
+      </c>
+      <c r="D57" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="F57" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="C57" s="10">
-        <v>3.0</v>
-      </c>
-      <c r="D57" s="10" t="s">
+      <c r="G57" s="10" t="s">
         <v>223</v>
-      </c>
-      <c r="E57" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="F57" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="G57" s="10" t="s">
-        <v>226</v>
       </c>
       <c r="H57" s="12"/>
       <c r="I57" s="1"/>
@@ -3590,27 +3923,27 @@
       <c r="Z57" s="1"/>
       <c r="AA57" s="1"/>
     </row>
-    <row r="58">
+    <row r="58" spans="1:27" ht="14">
       <c r="A58" s="8">
-        <v>51.0</v>
+        <v>51</v>
       </c>
       <c r="B58" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="C58" s="23">
+        <v>1</v>
+      </c>
+      <c r="D58" s="43" t="s">
+        <v>225</v>
+      </c>
+      <c r="E58" s="24" t="s">
+        <v>226</v>
+      </c>
+      <c r="F58" s="25" t="s">
         <v>227</v>
       </c>
-      <c r="C58" s="23">
-        <v>1.0</v>
-      </c>
-      <c r="D58" s="43" t="s">
+      <c r="G58" s="22" t="s">
         <v>228</v>
-      </c>
-      <c r="E58" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="F58" s="25" t="s">
-        <v>230</v>
-      </c>
-      <c r="G58" s="22" t="s">
-        <v>231</v>
       </c>
       <c r="H58" s="21"/>
       <c r="I58" s="1"/>
@@ -3633,27 +3966,27 @@
       <c r="Z58" s="1"/>
       <c r="AA58" s="1"/>
     </row>
-    <row r="59">
+    <row r="59" spans="1:27" ht="15">
       <c r="A59" s="13">
-        <v>52.0</v>
+        <v>52</v>
       </c>
       <c r="B59" s="9" t="s">
+        <v>229</v>
+      </c>
+      <c r="C59" s="10">
+        <v>1</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>232</v>
       </c>
-      <c r="C59" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D59" s="9" t="s">
+      <c r="G59" s="10" t="s">
         <v>233</v>
-      </c>
-      <c r="E59" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>235</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>236</v>
       </c>
       <c r="H59" s="12"/>
       <c r="I59" s="1"/>
@@ -3676,27 +4009,27 @@
       <c r="Z59" s="1"/>
       <c r="AA59" s="1"/>
     </row>
-    <row r="60">
+    <row r="60" spans="1:27" ht="14">
       <c r="A60" s="8">
-        <v>53.0</v>
+        <v>53</v>
       </c>
       <c r="B60" s="24" t="s">
+        <v>234</v>
+      </c>
+      <c r="C60" s="24">
+        <v>3</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>236</v>
+      </c>
+      <c r="F60" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="C60" s="24">
-        <v>3.0</v>
-      </c>
-      <c r="D60" s="24" t="s">
+      <c r="G60" s="22" t="s">
         <v>238</v>
-      </c>
-      <c r="E60" s="24" t="s">
-        <v>239</v>
-      </c>
-      <c r="F60" s="22" t="s">
-        <v>240</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>241</v>
       </c>
       <c r="H60" s="21"/>
       <c r="I60" s="1"/>
@@ -3719,27 +4052,27 @@
       <c r="Z60" s="1"/>
       <c r="AA60" s="1"/>
     </row>
-    <row r="61">
+    <row r="61" spans="1:27" ht="15">
       <c r="A61" s="13">
-        <v>54.0</v>
+        <v>54</v>
       </c>
       <c r="B61" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" s="10">
+        <v>1</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E61" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="F61" s="20" t="s">
         <v>242</v>
       </c>
-      <c r="C61" s="10">
-        <v>1.0</v>
-      </c>
-      <c r="D61" s="10" t="s">
+      <c r="G61" s="19" t="s">
         <v>243</v>
-      </c>
-      <c r="E61" s="9" t="s">
-        <v>244</v>
-      </c>
-      <c r="F61" s="20" t="s">
-        <v>245</v>
-      </c>
-      <c r="G61" s="19" t="s">
-        <v>246</v>
       </c>
       <c r="H61" s="12"/>
       <c r="I61" s="1"/>
@@ -3762,27 +4095,27 @@
       <c r="Z61" s="1"/>
       <c r="AA61" s="1"/>
     </row>
-    <row r="62">
+    <row r="62" spans="1:27" ht="14">
       <c r="A62" s="44">
-        <v>55.0</v>
+        <v>55</v>
       </c>
       <c r="B62" s="45" t="s">
+        <v>244</v>
+      </c>
+      <c r="C62" s="46">
+        <v>1</v>
+      </c>
+      <c r="D62" s="46" t="s">
+        <v>245</v>
+      </c>
+      <c r="E62" s="45" t="s">
+        <v>246</v>
+      </c>
+      <c r="F62" s="47" t="s">
         <v>247</v>
       </c>
-      <c r="C62" s="46">
-        <v>1.0</v>
-      </c>
-      <c r="D62" s="46" t="s">
+      <c r="G62" s="48" t="s">
         <v>248</v>
-      </c>
-      <c r="E62" s="45" t="s">
-        <v>249</v>
-      </c>
-      <c r="F62" s="47" t="s">
-        <v>250</v>
-      </c>
-      <c r="G62" s="48" t="s">
-        <v>251</v>
       </c>
       <c r="H62" s="49"/>
       <c r="I62" s="1"/>
@@ -3805,7 +4138,7 @@
       <c r="Z62" s="1"/>
       <c r="AA62" s="1"/>
     </row>
-    <row r="63">
+    <row r="63" spans="1:27" ht="13">
       <c r="A63" s="50"/>
       <c r="B63" s="50"/>
       <c r="C63" s="1"/>
@@ -3834,7 +4167,7 @@
       <c r="Z63" s="1"/>
       <c r="AA63" s="1"/>
     </row>
-    <row r="64">
+    <row r="64" spans="1:27" ht="13">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
@@ -3863,7 +4196,7 @@
       <c r="Z64" s="1"/>
       <c r="AA64" s="1"/>
     </row>
-    <row r="65">
+    <row r="65" spans="1:27" ht="13">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
@@ -3892,7 +4225,7 @@
       <c r="Z65" s="1"/>
       <c r="AA65" s="1"/>
     </row>
-    <row r="66">
+    <row r="66" spans="1:27" ht="13">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
@@ -3921,7 +4254,7 @@
       <c r="Z66" s="1"/>
       <c r="AA66" s="1"/>
     </row>
-    <row r="67">
+    <row r="67" spans="1:27" ht="13">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
@@ -3950,7 +4283,7 @@
       <c r="Z67" s="1"/>
       <c r="AA67" s="1"/>
     </row>
-    <row r="68">
+    <row r="68" spans="1:27" ht="13">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
@@ -3979,7 +4312,7 @@
       <c r="Z68" s="1"/>
       <c r="AA68" s="1"/>
     </row>
-    <row r="69">
+    <row r="69" spans="1:27" ht="13">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
@@ -4008,7 +4341,7 @@
       <c r="Z69" s="1"/>
       <c r="AA69" s="1"/>
     </row>
-    <row r="70">
+    <row r="70" spans="1:27" ht="13">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
@@ -4037,7 +4370,7 @@
       <c r="Z70" s="1"/>
       <c r="AA70" s="1"/>
     </row>
-    <row r="71">
+    <row r="71" spans="1:27" ht="13">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
@@ -4066,7 +4399,7 @@
       <c r="Z71" s="1"/>
       <c r="AA71" s="1"/>
     </row>
-    <row r="72">
+    <row r="72" spans="1:27" ht="13">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
@@ -4095,7 +4428,7 @@
       <c r="Z72" s="1"/>
       <c r="AA72" s="1"/>
     </row>
-    <row r="73">
+    <row r="73" spans="1:27" ht="13">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
@@ -4124,7 +4457,7 @@
       <c r="Z73" s="1"/>
       <c r="AA73" s="1"/>
     </row>
-    <row r="74">
+    <row r="74" spans="1:27" ht="13">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
@@ -4153,7 +4486,7 @@
       <c r="Z74" s="1"/>
       <c r="AA74" s="1"/>
     </row>
-    <row r="75">
+    <row r="75" spans="1:27" ht="13">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
@@ -4182,7 +4515,7 @@
       <c r="Z75" s="1"/>
       <c r="AA75" s="1"/>
     </row>
-    <row r="76">
+    <row r="76" spans="1:27" ht="13">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
@@ -4211,7 +4544,7 @@
       <c r="Z76" s="1"/>
       <c r="AA76" s="1"/>
     </row>
-    <row r="77">
+    <row r="77" spans="1:27" ht="13">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
@@ -4240,7 +4573,7 @@
       <c r="Z77" s="1"/>
       <c r="AA77" s="1"/>
     </row>
-    <row r="78">
+    <row r="78" spans="1:27" ht="13">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
@@ -4269,7 +4602,7 @@
       <c r="Z78" s="1"/>
       <c r="AA78" s="1"/>
     </row>
-    <row r="79">
+    <row r="79" spans="1:27" ht="13">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
@@ -4298,7 +4631,7 @@
       <c r="Z79" s="1"/>
       <c r="AA79" s="1"/>
     </row>
-    <row r="80">
+    <row r="80" spans="1:27" ht="13">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
@@ -4327,7 +4660,7 @@
       <c r="Z80" s="1"/>
       <c r="AA80" s="1"/>
     </row>
-    <row r="81">
+    <row r="81" spans="1:27" ht="13">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
@@ -4356,7 +4689,7 @@
       <c r="Z81" s="1"/>
       <c r="AA81" s="1"/>
     </row>
-    <row r="82">
+    <row r="82" spans="1:27" ht="13">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
@@ -4385,7 +4718,7 @@
       <c r="Z82" s="1"/>
       <c r="AA82" s="1"/>
     </row>
-    <row r="83">
+    <row r="83" spans="1:27" ht="13">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
@@ -4414,7 +4747,7 @@
       <c r="Z83" s="1"/>
       <c r="AA83" s="1"/>
     </row>
-    <row r="84">
+    <row r="84" spans="1:27" ht="13">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
@@ -4443,7 +4776,7 @@
       <c r="Z84" s="1"/>
       <c r="AA84" s="1"/>
     </row>
-    <row r="85">
+    <row r="85" spans="1:27" ht="13">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
@@ -4472,7 +4805,7 @@
       <c r="Z85" s="1"/>
       <c r="AA85" s="1"/>
     </row>
-    <row r="86">
+    <row r="86" spans="1:27" ht="13">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
@@ -4501,7 +4834,7 @@
       <c r="Z86" s="1"/>
       <c r="AA86" s="1"/>
     </row>
-    <row r="87">
+    <row r="87" spans="1:27" ht="13">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
@@ -4530,7 +4863,7 @@
       <c r="Z87" s="1"/>
       <c r="AA87" s="1"/>
     </row>
-    <row r="88">
+    <row r="88" spans="1:27" ht="13">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
@@ -4559,7 +4892,7 @@
       <c r="Z88" s="1"/>
       <c r="AA88" s="1"/>
     </row>
-    <row r="89">
+    <row r="89" spans="1:27" ht="13">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
@@ -4588,7 +4921,7 @@
       <c r="Z89" s="1"/>
       <c r="AA89" s="1"/>
     </row>
-    <row r="90">
+    <row r="90" spans="1:27" ht="13">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
@@ -4617,7 +4950,7 @@
       <c r="Z90" s="1"/>
       <c r="AA90" s="1"/>
     </row>
-    <row r="91">
+    <row r="91" spans="1:27" ht="13">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
@@ -4646,7 +4979,7 @@
       <c r="Z91" s="1"/>
       <c r="AA91" s="1"/>
     </row>
-    <row r="92">
+    <row r="92" spans="1:27" ht="13">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
@@ -4675,7 +5008,7 @@
       <c r="Z92" s="1"/>
       <c r="AA92" s="1"/>
     </row>
-    <row r="93">
+    <row r="93" spans="1:27" ht="13">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
@@ -4704,7 +5037,7 @@
       <c r="Z93" s="1"/>
       <c r="AA93" s="1"/>
     </row>
-    <row r="94">
+    <row r="94" spans="1:27" ht="13">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
@@ -4733,7 +5066,7 @@
       <c r="Z94" s="1"/>
       <c r="AA94" s="1"/>
     </row>
-    <row r="95">
+    <row r="95" spans="1:27" ht="13">
       <c r="A95" s="1"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
@@ -4762,7 +5095,7 @@
       <c r="Z95" s="1"/>
       <c r="AA95" s="1"/>
     </row>
-    <row r="96">
+    <row r="96" spans="1:27" ht="13">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
@@ -4791,7 +5124,7 @@
       <c r="Z96" s="1"/>
       <c r="AA96" s="1"/>
     </row>
-    <row r="97">
+    <row r="97" spans="1:27" ht="13">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
@@ -4820,7 +5153,7 @@
       <c r="Z97" s="1"/>
       <c r="AA97" s="1"/>
     </row>
-    <row r="98">
+    <row r="98" spans="1:27" ht="13">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
@@ -4849,7 +5182,7 @@
       <c r="Z98" s="1"/>
       <c r="AA98" s="1"/>
     </row>
-    <row r="99">
+    <row r="99" spans="1:27" ht="13">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
@@ -4878,7 +5211,7 @@
       <c r="Z99" s="1"/>
       <c r="AA99" s="1"/>
     </row>
-    <row r="100">
+    <row r="100" spans="1:27" ht="13">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
@@ -4913,12 +5246,11 @@
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
   </mergeCells>
-  <printOptions gridLines="1" horizontalCentered="1"/>
-  <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup fitToHeight="0" paperSize="9" cellComments="atEnd" orientation="landscape" pageOrder="overThenDown"/>
-  <drawing r:id="rId1"/>
+  <printOptions horizontalCentered="1" gridLines="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
+  <pageSetup paperSize="9" fitToHeight="0" pageOrder="overThenDown" orientation="landscape" cellComments="atEnd"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>